--- a/data/trans_dic/P62A$otras-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1287838733998558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4704588028737484</v>
+        <v>0.4704588028737486</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07482781708823819</v>
@@ -685,7 +685,7 @@
         <v>0.224634448977803</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3308679628989533</v>
+        <v>0.3308679628989531</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04412575849030666</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1113533569607821</v>
+        <v>0.1126404566889394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09061155867415339</v>
+        <v>0.09061691453872714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3987587512664316</v>
+        <v>0.3946193879905397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04445680165827588</v>
+        <v>0.04741434038984588</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1792825763750823</v>
+        <v>0.1744628275846831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1793368011509129</v>
+        <v>0.1775303162028369</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2786435872670245</v>
+        <v>0.2775827473737786</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02739646840327685</v>
+        <v>0.02786671864104931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.159609825862517</v>
+        <v>0.1592518686730112</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.144441993951717</v>
+        <v>0.1433039092296768</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3476682016594148</v>
+        <v>0.3476005676490377</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02710968930428407</v>
+        <v>0.03122120456425071</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2106284583190927</v>
+        <v>0.2144439663653106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1733192163052007</v>
+        <v>0.1747353827478749</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5481015442953743</v>
+        <v>0.5565662606283297</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1149434432401794</v>
+        <v>0.1204106450296671</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2906095608885751</v>
+        <v>0.2892918658736351</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2850863798505446</v>
+        <v>0.2788550423510572</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3979230719397285</v>
+        <v>0.3916567145958956</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06738394839209232</v>
+        <v>0.06732434858061397</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2352152213255398</v>
+        <v>0.2369972167479043</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2086726870728731</v>
+        <v>0.2106351641332033</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4443907842677481</v>
+        <v>0.4378939854580913</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04504490771174718</v>
+        <v>0.04280141622955445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02780113472152947</v>
+        <v>0.03008076824332436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2964988204168204</v>
+        <v>0.2902055386596377</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01244144600398445</v>
+        <v>0.01148964126871903</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08971116137565435</v>
+        <v>0.08758228884451059</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0856806222972514</v>
+        <v>0.0808135204579909</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1345306696068427</v>
+        <v>0.1343455115716693</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005871346211068242</v>
+        <v>0.005868801813913561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07387367331540919</v>
+        <v>0.07086718273504328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06134563838603233</v>
+        <v>0.06152177984820174</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2232330455313392</v>
+        <v>0.2214261376377419</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0238683256412876</v>
+        <v>0.02030495984891045</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1197584129789971</v>
+        <v>0.1136872682584425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08795349639664819</v>
+        <v>0.08928689317956315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.400175359701919</v>
+        <v>0.3960932651386803</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07547907264093111</v>
+        <v>0.07212298335534603</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.172825269459488</v>
+        <v>0.1798556975529681</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1875979682137212</v>
+        <v>0.1807102899369186</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2053694702541194</v>
+        <v>0.207357411947491</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03126155149979225</v>
+        <v>0.03320224186795673</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1338544728949284</v>
+        <v>0.1290644239807937</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.117095443161844</v>
+        <v>0.1147966859190497</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2882027705081079</v>
+        <v>0.28833103604008</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02838856245559666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3233831559431501</v>
+        <v>0.32338315594315</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0284661625898339</v>
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009460174793586648</v>
+        <v>0.009984678988952486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2751154999170386</v>
+        <v>0.273704873943261</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007465033551858404</v>
+        <v>0.007377680211618069</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01213256686744529</v>
+        <v>0.01207066492752788</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04798789885230312</v>
+        <v>0.04215792632545051</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1617291470637774</v>
+        <v>0.1600020713407944</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006064592097828991</v>
+        <v>0.005617915510610351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007062367276849147</v>
+        <v>0.006884782577531709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03243578675145529</v>
+        <v>0.0309503769706978</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2383244761344569</v>
+        <v>0.23962530276038</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03234232926068915</v>
+        <v>0.02794327682325885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0174842144121893</v>
+        <v>0.0171291316252055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0635425849778011</v>
+        <v>0.06274236330997526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3783108539111016</v>
+        <v>0.3762455613402313</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06675583539441328</v>
+        <v>0.06510188467137053</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07369851876046837</v>
+        <v>0.07411187308611658</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.145607119428994</v>
+        <v>0.1423521711384417</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.255632641141759</v>
+        <v>0.2515420977240875</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03417715698454722</v>
+        <v>0.03425081379657256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03128580995452786</v>
+        <v>0.03469792872663501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0894604422679586</v>
+        <v>0.08673448532408605</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3102990644534628</v>
+        <v>0.3066776483051082</v>
       </c>
     </row>
     <row r="13">
@@ -1123,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1064472132066503</v>
+        <v>0.1080145825094635</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01205081425228052</v>
+        <v>0.01209130709586515</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01180494671426506</v>
+        <v>0.01221706972466353</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1213298964252921</v>
+        <v>0.1220697914702629</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005057216623580276</v>
+        <v>0.005106118862002333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009552955405290532</v>
+        <v>0.009561123429100291</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1247908268670909</v>
+        <v>0.1217902362375069</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1101047631103659</v>
+        <v>0.07558695835009212</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.05055501036506497</v>
+        <v>0.05015205550023813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.198707479600892</v>
+        <v>0.2008437977094246</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1452270830879008</v>
+        <v>0.1273608514362535</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1192384704039683</v>
+        <v>0.1248199730056721</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1056695106740463</v>
+        <v>0.1162569230405059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2064524511899615</v>
+        <v>0.2115051579081021</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06922090924874762</v>
+        <v>0.06104863526311171</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04846760159731539</v>
+        <v>0.04959726337797689</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05778808784781172</v>
+        <v>0.05613616656120091</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1855796931572807</v>
+        <v>0.1834459346771752</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.06694761898721839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3085923903616261</v>
+        <v>0.308592390361626</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04850912301674241</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002603790332640423</v>
+        <v>0.002716554916356629</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05287163432261634</v>
+        <v>0.05049180917092331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05231448647396206</v>
+        <v>0.04970612554445027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.281694059523005</v>
+        <v>0.281009416715973</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03120891424844785</v>
+        <v>0.03097239489253084</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1044477155603784</v>
+        <v>0.1076456492289651</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1212808980836507</v>
+        <v>0.1216883445488272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1893656762887645</v>
+        <v>0.1896719139739792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01770023213931857</v>
+        <v>0.01778028675696785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08209931549498127</v>
+        <v>0.08227626244988058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08674661211864439</v>
+        <v>0.08854710639314819</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2455869592999776</v>
+        <v>0.2440438274263767</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01589624238544934</v>
+        <v>0.01669570226332101</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0899401837040531</v>
+        <v>0.08675013535816237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08698790083494153</v>
+        <v>0.08477413571113908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3379507223095177</v>
+        <v>0.3352033866499931</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06857358498138334</v>
+        <v>0.06812228118117808</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1556849603409394</v>
+        <v>0.157512146213266</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1724181642708113</v>
+        <v>0.1770078220053582</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2351582489963324</v>
+        <v>0.2359553723061592</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03545795852934495</v>
+        <v>0.03620306606280379</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1131296841435996</v>
+        <v>0.1125274559257151</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1191831464817583</v>
+        <v>0.1193754586947205</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2787121275357667</v>
+        <v>0.2809187826443121</v>
       </c>
     </row>
     <row r="19">
@@ -1599,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27608</v>
+        <v>27927</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26959</v>
+        <v>26960</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57206</v>
+        <v>56612</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10016</v>
+        <v>10682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44006</v>
+        <v>42823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>51758</v>
+        <v>51237</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49090</v>
+        <v>48903</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11548</v>
+        <v>11746</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>78749</v>
+        <v>78573</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>84661</v>
+        <v>83994</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>111127</v>
+        <v>111105</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5319</v>
+        <v>6126</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52221</v>
+        <v>53167</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51566</v>
+        <v>51987</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>78630</v>
+        <v>79844</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25896</v>
+        <v>27128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71332</v>
+        <v>71009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>82279</v>
+        <v>80480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>70104</v>
+        <v>69001</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28402</v>
+        <v>28377</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>116052</v>
+        <v>116931</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>122309</v>
+        <v>123459</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>142043</v>
+        <v>139966</v>
       </c>
     </row>
     <row r="8">
@@ -1779,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11258</v>
+        <v>10697</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6627</v>
+        <v>7170</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77871</v>
+        <v>76218</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2106</v>
+        <v>1945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21919</v>
+        <v>21399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16949</v>
+        <v>15987</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35574</v>
+        <v>35525</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36512</v>
+        <v>35026</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26759</v>
+        <v>26835</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>117658</v>
+        <v>116706</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5893</v>
+        <v>5013</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29931</v>
+        <v>28413</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20966</v>
+        <v>21284</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105100</v>
+        <v>104028</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12778</v>
+        <v>12210</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42226</v>
+        <v>43943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37111</v>
+        <v>35748</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54305</v>
+        <v>54831</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13011</v>
+        <v>13819</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>66158</v>
+        <v>63790</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51076</v>
+        <v>50074</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>151901</v>
+        <v>151969</v>
       </c>
     </row>
     <row r="12">
@@ -1962,34 +1962,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2021</v>
+        <v>2133</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65003</v>
+        <v>64670</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2108</v>
+        <v>2097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7487</v>
+        <v>6578</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29160</v>
+        <v>28848</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1997</v>
+        <v>1850</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3053</v>
+        <v>2976</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11989</v>
+        <v>11440</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>99280</v>
+        <v>99822</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6383</v>
+        <v>5515</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4520</v>
+        <v>4428</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13573</v>
+        <v>13402</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>89386</v>
+        <v>88898</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8811</v>
+        <v>8592</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12805</v>
+        <v>12877</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22718</v>
+        <v>22210</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46091</v>
+        <v>45353</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11256</v>
+        <v>11280</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13523</v>
+        <v>14998</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>33067</v>
+        <v>32059</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>129263</v>
+        <v>127755</v>
       </c>
     </row>
     <row r="16">
@@ -2143,31 +2143,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23354</v>
+        <v>23698</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1062</v>
+        <v>1099</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20909</v>
+        <v>21037</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>48884</v>
+        <v>47709</v>
       </c>
     </row>
     <row r="19">
@@ -2178,38 +2178,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7742</v>
+        <v>5315</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>6944</v>
+        <v>6888</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43596</v>
+        <v>44065</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4966</v>
+        <v>4355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9341</v>
+        <v>9778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9504</v>
+        <v>10456</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35579</v>
+        <v>36449</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7234</v>
+        <v>6380</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8997</v>
+        <v>9207</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13135</v>
+        <v>12759</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>72697</v>
+        <v>71861</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1851</v>
+        <v>1931</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45662</v>
+        <v>43607</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>46394</v>
+        <v>44081</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>242755</v>
+        <v>242165</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17501</v>
+        <v>17368</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77487</v>
+        <v>79859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>88826</v>
+        <v>89124</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>150212</v>
+        <v>150455</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22507</v>
+        <v>22608</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>131812</v>
+        <v>132096</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>140463</v>
+        <v>143379</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>406448</v>
+        <v>403894</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11299</v>
+        <v>11867</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>77676</v>
+        <v>74921</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77144</v>
+        <v>75181</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>291235</v>
+        <v>288868</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>38454</v>
+        <v>38201</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>115498</v>
+        <v>116854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>126279</v>
+        <v>129640</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>186536</v>
+        <v>187169</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45086</v>
+        <v>46034</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>181632</v>
+        <v>180665</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>192986</v>
+        <v>193297</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>461270</v>
+        <v>464922</v>
       </c>
     </row>
     <row r="24">
